--- a/data/trans_bre/P25A_6_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_6_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,9</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>39,66%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>63,76%</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>207,0%</t>
+          <t>91,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>78,12%</t>
+          <t>20,27%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>220,5%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>144,2%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 6,68</t>
+          <t>-2,25; 12,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 6,07</t>
+          <t>-3,95; 5,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 7,55</t>
+          <t>1,57; 7,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 43,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,04; 198,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,07; 224,28</t>
+          <t>-0,19; 13,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,54; 640,58</t>
+          <t>-32,26; 531,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,9; 337,99</t>
+          <t>-54,11; 213,87</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>36,47; 728,55</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-29,3; 649,73</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-14,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,32%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-31,38%</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-1,87%</t>
+          <t>-15,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-37,53%</t>
+          <t>-29,88%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20,87%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>37,31%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 1,12</t>
+          <t>-2,56; 1,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 0,61</t>
+          <t>-2,13; 0,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 2,01</t>
+          <t>-1,25; 4,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,6; 22,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-73,76; 200,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-75,29; 64,48</t>
+          <t>-2,32; 3,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-65,58; 197,65</t>
+          <t>-78,58; 157,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 95,27</t>
+          <t>-74,36; 96,4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-62,01; 317,53</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-66,91; 249,78</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>-1,96</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-1,46</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>39,8</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-66,1%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>-0,91</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-22,38%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-69,11%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>310,76%</t>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-71,11%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-66,24%</t>
         </is>
       </c>
     </row>
@@ -868,22 +1000,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,17</t>
+          <t>-1,67; 0,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; -0,62</t>
+          <t>-4,04; -0,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 0,09</t>
+          <t>-4,12; -0,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,12; 84,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,15 +1025,35 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,63; 0,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 56,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 21,85</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -910,7 +1062,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>-40,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>245,33%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>49,23%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,78</t>
+          <t>-3,13; 0,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,31</t>
+          <t>0,84; 5,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 32,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,11; 125,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,03; 85,01</t>
+          <t>-1,53; 4,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,77; 135,35</t>
+          <t>-81,4; 55,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 170,18</t>
+          <t>13,77; 1250,5</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-62,12; 488,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,46%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9,73%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>41,31%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>68,6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 1,28</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 1,43</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 2,58</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-0,15; 3,26</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-41,41; 71,9</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-32,45; 90,89</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-18,69; 164,43</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-10,51; 195,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_6_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_6_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,39</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>6,58</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>91,66%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>20,27%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>220,5%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>144,2%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.450910786726157</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.9240248529418377</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.421308622126342</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>6.804314903309877</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.300142954546685</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.193179663982633</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>2.223072302535082</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="n">
+        <v>1.466048377977069</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,25; 12,46</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,95; 5,47</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,57; 7,78</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 13,73</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-32,26; 531,5</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-54,11; 213,87</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>36,47; 728,55</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-29,3; 649,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.5704850423617829</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.197764070329598</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.540172701194905</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>-0.05917591851454593</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2165707327985887</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.5893141113005638</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.3522170898372003</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="n">
+        <v>-0.2885968174494896</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15.1431143745741</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.218829098840774</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.859688961951133</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>14.16843689470169</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>6.912646215693422</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.065476460461408</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>7.278587064759115</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="n">
+        <v>6.665966752096799</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-15,69%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-29,88%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>20,87%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>37,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,56; 1,55</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,13; 0,84</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,25; 4,23</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 3,37</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-78,58; 157,66</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-74,36; 96,4</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-62,01; 317,53</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-66,91; 249,78</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.2724334464553592</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.5375896050392058</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.2329869859682355</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>0.8148437228616936</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1452625657521775</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.2944021756548948</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.131442529619554</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="n">
+        <v>0.3700287349811938</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,96</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,46</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-0,91</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-22,38%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-71,11%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-66,24%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.272302133739148</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.020648273579169</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.267809596250887</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>-2.119738790321876</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.780527710415874</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.7332411323537461</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.6309379064277026</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="n">
+        <v>-0.6800122923475705</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,67; 0,8</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,04; -0,89</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,12; -0,02</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-5,63; 0,46</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 21,85</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.40682272366822</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.83862720644067</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.681938279144911</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>3.109061486246585</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.59257694666442</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.078830673804214</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>2.801281944534493</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="n">
+        <v>2.329206090890569</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,222 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,06</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,1</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-40,22%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>245,33%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>49,23%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.05534895040241226</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.190698364966026</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.522294857330755</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>-0.9013178892165383</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.09101143912597469</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.7160883569624819</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>-0.6537717006669292</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,13; 0,67</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 5,83</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 4,67</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-81,4; 55,7</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>13,77; 1250,5</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-62,12; 488,7</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.4734282079196</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.786927955201301</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.528828946109276</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-5.751945304358578</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.8381516723488325</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-0.9667988672316966</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-0.03840979712720977</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>0.4818838729162832</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="n">
+        <v>0.1932407697083652</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>1,62</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>3,46%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>9,73%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>41,31%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>68,6%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,23; 1,28</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,88; 1,43</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 2,58</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 3,26</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-41,41; 71,9</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-32,45; 90,89</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-18,69; 164,43</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>-10,51; 195,18</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>1.172880820342566</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.6742599462626598</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.7429464084234884</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>1.879355791230997</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.6116404141646251</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.2650430678717902</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.3851149681669445</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="n">
+        <v>0.7909682649422982</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.4768020351384281</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.033391496908522</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.4235292907176126</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>-0.3803406835213407</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2289578141193008</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.6217346020545121</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.2036085421989151</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="n">
+        <v>-0.1584943239880478</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.983236537100483</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.5053459096137057</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.363536920419354</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>3.92898946988599</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.21991342493302</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2901673004908679</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.537061773925744</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="n">
+        <v>2.465851754295571</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
